--- a/output/part2/January Anomaly Fama-Macbeth January only.xlsx
+++ b/output/part2/January Anomaly Fama-Macbeth January only.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03072002768959475</v>
+        <v>0.02848745378107692</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0123556672871532</v>
+        <v>0.01195667099179325</v>
       </c>
       <c r="D2" t="n">
-        <v>2.486310692546397</v>
+        <v>2.382557302164623</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02186276954706505</v>
+        <v>0.02672112502736157</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01608905419554245</v>
+        <v>0.01699029435290176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004617184635956333</v>
+        <v>0.004418203577970306</v>
       </c>
       <c r="D3" t="n">
-        <v>3.484602731770549</v>
+        <v>3.84552093471143</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002336941327993981</v>
+        <v>0.0009393780014642101</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003275929807134644</v>
+        <v>0.003372699524039307</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002551425667880161</v>
+        <v>0.002495679782907369</v>
       </c>
       <c r="D4" t="n">
-        <v>1.283960512107113</v>
+        <v>1.351415172386517</v>
       </c>
       <c r="E4" t="n">
-        <v>0.213831649076897</v>
+        <v>0.1909422843270387</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003123504751644469</v>
+        <v>0.004541487460203516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003836019860429564</v>
+        <v>0.003396016733988112</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8142566684455836</v>
+        <v>1.337298316215957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4250873852403094</v>
+        <v>0.1954309123387408</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0009169309422607276</v>
+        <v>0.002341258504488039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002142458190334636</v>
+        <v>0.002349231615170162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4279807869284533</v>
+        <v>0.9966060772251502</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6732384150488986</v>
+        <v>0.3303015245064564</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003108526105299536</v>
+        <v>0.002785612163455878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003411959270240412</v>
+        <v>0.003176310476322772</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9110677646162242</v>
+        <v>0.876996182904888</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3731103543674603</v>
+        <v>0.390411384985089</v>
       </c>
     </row>
   </sheetData>

--- a/output/part2/January Anomaly Fama-Macbeth January only.xlsx
+++ b/output/part2/January Anomaly Fama-Macbeth January only.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02848745378107692</v>
+        <v>0.04893932029230817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01195667099179325</v>
+        <v>0.0121361253131115</v>
       </c>
       <c r="D2" t="n">
-        <v>2.382557302164623</v>
+        <v>4.032532544751794</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02672112502736157</v>
+        <v>0.0006011210529444655</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01699029435290176</v>
+        <v>0.01696555253412856</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004418203577970306</v>
+        <v>0.004411849469755124</v>
       </c>
       <c r="D3" t="n">
-        <v>3.84552093471143</v>
+        <v>3.845451357856553</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0009393780014642101</v>
+        <v>0.0009395338019118271</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003372699524039307</v>
+        <v>0.003363890362798013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002495679782907369</v>
+        <v>0.002493677952083341</v>
       </c>
       <c r="D4" t="n">
-        <v>1.351415172386517</v>
+        <v>1.348967439836269</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1909422843270387</v>
+        <v>0.191714688549208</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004541487460203516</v>
+        <v>0.004528747290993359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003396016733988112</v>
+        <v>0.00339738808339827</v>
       </c>
       <c r="D5" t="n">
-        <v>1.337298316215957</v>
+        <v>1.333008528852976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1954309123387408</v>
+        <v>0.1968112226181296</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002341258504488039</v>
+        <v>0.002340624601179385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002349231615170162</v>
+        <v>0.002349137126994793</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9966060772251502</v>
+        <v>0.9963763180456403</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3303015245064564</v>
+        <v>0.330410500010096</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002785612163455878</v>
+        <v>0.00277524737947517</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003176310476322772</v>
+        <v>0.003174772542490963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.876996182904888</v>
+        <v>0.8741562875234139</v>
       </c>
       <c r="E7" t="n">
-        <v>0.390411384985089</v>
+        <v>0.3919207088259935</v>
       </c>
     </row>
   </sheetData>
